--- a/dm_is_1yr_4juni.xlsx
+++ b/dm_is_1yr_4juni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FCCDC-4642-C04B-8125-264D81BC0F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395C8DEC-E8BF-CB43-A162-A5FBD73C1017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,67 +20,52 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>stat 10</t>
-  </si>
-  <si>
-    <t>p-value 10</t>
-  </si>
-  <si>
-    <t>stat 20</t>
-  </si>
-  <si>
-    <t>p-value 20</t>
-  </si>
-  <si>
-    <t>stat 30</t>
-  </si>
-  <si>
-    <t>p-value 30</t>
-  </si>
-  <si>
-    <t>stat 40</t>
-  </si>
-  <si>
-    <t>p-value 40</t>
-  </si>
-  <si>
-    <t>stat 50</t>
-  </si>
-  <si>
-    <t>p-value 50</t>
-  </si>
-  <si>
-    <t>stat 60</t>
-  </si>
-  <si>
-    <t>p-value 60</t>
-  </si>
-  <si>
-    <t>stat 70</t>
-  </si>
-  <si>
-    <t>p-value 70</t>
-  </si>
-  <si>
-    <t>stat 80</t>
-  </si>
-  <si>
-    <t>p-value 80</t>
-  </si>
-  <si>
-    <t>stat 90</t>
-  </si>
-  <si>
-    <t>p-value 90</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>QRF</t>
+  </si>
+  <si>
+    <t>QGB</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>p_10</t>
+  </si>
+  <si>
+    <t>p_20</t>
+  </si>
+  <si>
+    <t>p_30</t>
+  </si>
+  <si>
+    <t>p_40</t>
+  </si>
+  <si>
+    <t>p_50</t>
+  </si>
+  <si>
+    <t>p_60</t>
+  </si>
+  <si>
+    <t>p_70</t>
+  </si>
+  <si>
+    <t>p_80</t>
+  </si>
+  <si>
+    <t>p_90</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +77,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,257 +413,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="1">
+        <v>0.87471736150021751</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.65408818653642298</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.56738639486630493</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.37888787397504542</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8.7644329735403498E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.695705334917937E-5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.384889664679888E-8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.3227313774112298E-8</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.36503305880264E-5</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B3" s="1">
+        <v>0.99560878157218768</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.98328577954911056</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.91475659002071719</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.7883891163433101</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.38151050342089848</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1261416364626847</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.1199257469527989</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1749268845603956</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.186360654893893</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>-1.150895789416414</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.87471736150021751</v>
-      </c>
-      <c r="D2" s="1">
-        <v>-0.39671116854546062</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.65408818653642298</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-0.16984947608383319</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.56738639486630493</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.30864568353924282</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.37888787397504542</v>
-      </c>
-      <c r="J2" s="1">
-        <v>2.3868099472528042</v>
-      </c>
-      <c r="K2" s="1">
-        <v>8.7644329735403498E-3</v>
-      </c>
-      <c r="L2" s="1">
-        <v>4.2002403868326734</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1.695705334917937E-5</v>
-      </c>
-      <c r="N2" s="1">
-        <v>5.6851108275092006</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1.384889664679888E-8</v>
-      </c>
-      <c r="P2" s="1">
-        <v>5.587867424856789</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>2.3227313774112298E-8</v>
-      </c>
-      <c r="R2" s="1">
-        <v>4.2515986613946266</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1.36503305880264E-5</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-2.6352964761729258</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.99560878157218768</v>
-      </c>
-      <c r="D3" s="1">
-        <v>-2.1353719382730869</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.98328577954911056</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-1.373481715800225</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.91475659002071719</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-0.80178969440315395</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.7883891163433101</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.30175247290289819</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.38151050342089848</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.1467246263534041</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.1261416364626847</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1.1773723999842309</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.1199257469527989</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.93613322043425984</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.1749268845603956</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0.89253814918793017</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0.186360654893893</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
       <c r="B4" s="1">
-        <v>0.48066072227098078</v>
+        <v>0.31552984083006069</v>
       </c>
       <c r="C4" s="1">
-        <v>0.31552984083006069</v>
+        <v>0.48793459130922667</v>
       </c>
       <c r="D4" s="1">
-        <v>3.0269864168857769E-2</v>
+        <v>0.37930162624976621</v>
       </c>
       <c r="E4" s="1">
-        <v>0.48793459130922667</v>
+        <v>0.10716692192716749</v>
       </c>
       <c r="F4" s="1">
-        <v>0.30755722526883078</v>
+        <v>2.3539373956923459E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.37930162624976621</v>
+        <v>3.8414915692983838E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>1.2440081220226309</v>
+        <v>0.1294642309843021</v>
       </c>
       <c r="I4" s="1">
-        <v>0.10716692192716749</v>
+        <v>0.2668972008172722</v>
       </c>
       <c r="J4" s="1">
-        <v>1.992665937773247</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.3539373956923459E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.7746500633885129</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3.8414915692983838E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1.130775086972861</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.1294642309843021</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.6228448759695161</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.2668972008172722</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.70842022985278019</v>
-      </c>
-      <c r="S4" s="1">
         <v>0.23957929017114671</v>
       </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -685,17 +570,8 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -708,17 +584,8 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -731,17 +598,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -754,17 +612,8 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -777,17 +626,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -800,17 +640,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -823,17 +654,8 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -846,17 +668,8 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -869,17 +682,8 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -892,17 +696,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>